--- a/biology/Biochimie/Fédération_européenne_des_sociétés_de_biochimie/Fédération_européenne_des_sociétés_de_biochimie.xlsx
+++ b/biology/Biochimie/Fédération_européenne_des_sociétés_de_biochimie/Fédération_européenne_des_sociétés_de_biochimie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_europ%C3%A9enne_des_soci%C3%A9t%C3%A9s_de_biochimie</t>
+          <t>Fédération_européenne_des_sociétés_de_biochimie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération européenne des sociétés de biochimie, (en anglais : Federation of European Biochemical Societies plus connue sous le sigle FEBS[N 1]), est une société savante internationale destinée à la promotion des activités européennes dans les disciplines que sont la biochimie, la biologie moléculaire et la biophysique. Fondée en 1964, elle compte a peu près 40 000 membres répartis au sein de 43 sociétés savantes nationales (36 antennes nationales et 7 sociétés associées)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération européenne des sociétés de biochimie, (en anglais : Federation of European Biochemical Societies plus connue sous le sigle FEBS[N 1]), est une société savante internationale destinée à la promotion des activités européennes dans les disciplines que sont la biochimie, la biologie moléculaire et la biophysique. Fondée en 1964, elle compte a peu près 40 000 membres répartis au sein de 43 sociétés savantes nationales (36 antennes nationales et 7 sociétés associées).
 Les sociétés francophones membres ou associées sont :
 La société belge de biochimie et biologie moléculaire
 La société française de biochimie et de biologie moléculaire
